--- a/medicine/Enfance/Marie-Sabine_Roger/Marie-Sabine_Roger.xlsx
+++ b/medicine/Enfance/Marie-Sabine_Roger/Marie-Sabine_Roger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Sabine Roger est une écrivaine française née le 19 septembre 1957 à Bordeaux (France).
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1957[1] , institutrice en maternelle[2], elle se consacre progressivement à l'écriture. Elle est publiée pour la première fois en 1989 en littérature jeunesse. Marie-Sabine Roger n'a pas cessé d'écrire depuis, dans des registres très variés, albums et romans jeunesse, romans pour grands adolescents et adultes, nouvelles et romans pour adultes, et plus récemment, collaboration à des scénarios pour le cinéma, avec Jean Becker. 
-Le Quatrième soupirail, écrit pour des adolescents, reçoit le Prix Sorcières en 2006[1]. Mais depuis les années 2000, elle s'adresse aussi à des lecteurs adultes, et se fait connaître notamment par La Tête en friche, adapté au cinéma par Jean Becker [La Tête en friche (film)][3]. Vivement l’avenir, publié la même année reçoit le Prix Marguerite-Audoux[1]. Bon Rétablissement, publié peu après, en 2012, fait également l'objet d'une adaptation cinématographique par Jean Becker [Bon Rétablissement ! (film)][4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1957 , institutrice en maternelle, elle se consacre progressivement à l'écriture. Elle est publiée pour la première fois en 1989 en littérature jeunesse. Marie-Sabine Roger n'a pas cessé d'écrire depuis, dans des registres très variés, albums et romans jeunesse, romans pour grands adolescents et adultes, nouvelles et romans pour adultes, et plus récemment, collaboration à des scénarios pour le cinéma, avec Jean Becker. 
+Le Quatrième soupirail, écrit pour des adolescents, reçoit le Prix Sorcières en 2006. Mais depuis les années 2000, elle s'adresse aussi à des lecteurs adultes, et se fait connaître notamment par La Tête en friche, adapté au cinéma par Jean Becker [La Tête en friche (film)]. Vivement l’avenir, publié la même année reçoit le Prix Marguerite-Audoux. Bon Rétablissement, publié peu après, en 2012, fait également l'objet d'une adaptation cinématographique par Jean Becker [Bon Rétablissement ! (film)].
 Elle est publiée par divers éditeurs dont Casterman, Nathan,  Hachette jeunesse, ou Seuil jeunesse pour ses albums, et Actes Sud, Thierry Magnier ou le Rouergue pour ses romans.
-Elle est installée en Charente, près d’Angoulême[5].
+Elle est installée en Charente, près d’Angoulême.
 </t>
         </is>
       </c>
@@ -547,8 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Albums illustrés
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Albums illustrés</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1989 : 3 histoires de moutons - Éditions malo
 1991 : 3 histoires d'extraterrestres - Éditions malo
 1993 : Philomène Chontard sorcière ! - Éditions malo
@@ -592,7 +615,47 @@
 2002 : 1...2...3... Noël !
 2007 : Le soleil de plus près, illustrations de Géraldine Alibeu (Sarbacane)
 2008 : Les Sages Apalants, illustrations de Bruno Pilorget (Sarbacane)
-Romans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie-Sabine_Roger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Sabine_Roger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1997 : Le Vent de la colère - Éditions Hachette
 1997 : Le Mystère Esteban - Éditions Hachette
 1998 : À la vie, à la... - Éditions Nathan
@@ -614,88 +677,168 @@
 2004 : Une poignée d’argile - Ado
 2007 : L’Odyssée de Dakil le Grand - Fantasy
 2008 : Et tu te soumettras à la loi de ton père - Éditions Thierry Magnier
-Littérature adulte
-Romans
-2001 : Le ciel est immense, Éditions du Relié
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie-Sabine_Roger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Sabine_Roger</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature adulte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2001 : Le ciel est immense, Éditions du Relié
 2004 : Un simple viol, Éditions Grasset
 2009 : La Tête en friche, Éditions du Rouergue
 2010 : Vivement l’avenir, Éditions du Rouergue
 2012 : Bon Rétablissement, Éditions du Rouergue
 2014 : Trente-six chandelles, Éditions du Rouergue
 2016 : Dans les prairies étoilées, Éditions du Rouergue
-2018 : Les bracassées, Éditions du Rouergue[6]
-2020 : Loin-Confins, Éditions du Rouergue, coll. La Brune, 200 pages  (ISBN 978-2-8126-2074-4)[7],[8]
-2021 : Dernière visite à ma mère, L'iconoclaste  (ISBN 9782378801724)
-Nouvelles
-2003 : La Théorie du chien perché, Éditions Thierry Magnier
+2018 : Les bracassées, Éditions du Rouergue
+2020 : Loin-Confins, Éditions du Rouergue, coll. La Brune, 200 pages  (ISBN 978-2-8126-2074-4),
+2021 : Dernière visite à ma mère, L'iconoclaste  (ISBN 9782378801724)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie-Sabine_Roger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Sabine_Roger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature adulte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2003 : La Théorie du chien perché, Éditions Thierry Magnier
 2007 : Les Encombrants, Éditions Thierry Magnier
 2010 : Il ne fait jamais noir en ville, Éditions Thierry Magnier</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Marie-Sabine_Roger</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie-Sabine_Roger</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adaptations cinématographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2010 : La tête en friche, film français réalisé par Jean Becker, avec Gérard Depardieu (Germain) et Gisèle Casadesus (Margueritte).
 2014 : Bon Rétablissement !, film français réalisé par Jean Becker, avec Gérard Lanvin (Pierre).</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Marie-Sabine_Roger</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie-Sabine_Roger</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix Sorcières 2006[9] dans la catégorie romans adolescents pour Le Quatrième soupirail.
-Prix Sorcières 2010[9] catégorie Documentaire, pour À quoi tu joues ? illustré par Anne Sol
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix Sorcières 2006 dans la catégorie romans adolescents pour Le Quatrième soupirail.
+Prix Sorcières 2010 catégorie Documentaire, pour À quoi tu joues ? illustré par Anne Sol
 Prix Marguerite-Audoux 2010 pour Vivement l'avenir (éditions du Rouergue)
-Prix des lycéens allemands 2011[9] pour La tête en friche (éditions du Rouergue)
-Prix littéraire des Hebdos en Région 2011 pour Vivement l'avenir[10] (éditions du Rouergue)
-Prix Saint-Exupéry 2012[9] pour  De ce côté du monde illustré par Sylvie Serprix</t>
+Prix des lycéens allemands 2011 pour La tête en friche (éditions du Rouergue)
+Prix littéraire des Hebdos en Région 2011 pour Vivement l'avenir (éditions du Rouergue)
+Prix Saint-Exupéry 2012 pour  De ce côté du monde illustré par Sylvie Serprix</t>
         </is>
       </c>
     </row>
